--- a/natmiOut/OldD4/LR-pairs_lrc2p/Vtn-Itga8.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Vtn-Itga8.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.64593349569733</v>
+        <v>6.201571333333333</v>
       </c>
       <c r="H2">
-        <v>5.64593349569733</v>
+        <v>18.604714</v>
       </c>
       <c r="I2">
-        <v>0.05923501724226955</v>
+        <v>0.05221490529364391</v>
       </c>
       <c r="J2">
-        <v>0.05923501724226955</v>
+        <v>0.07406232529850043</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.559894782872871</v>
+        <v>1.253707</v>
       </c>
       <c r="N2">
-        <v>0.559894782872871</v>
+        <v>3.761121</v>
       </c>
       <c r="O2">
-        <v>0.03711339214353097</v>
+        <v>0.07760709912293902</v>
       </c>
       <c r="P2">
-        <v>0.03711339214353097</v>
+        <v>0.1037097015912075</v>
       </c>
       <c r="Q2">
-        <v>3.161128708688126</v>
+        <v>7.774953391599333</v>
       </c>
       <c r="R2">
-        <v>3.161128708688126</v>
+        <v>69.97458052439399</v>
       </c>
       <c r="S2">
-        <v>0.002198412423541168</v>
+        <v>0.004052247330818696</v>
       </c>
       <c r="T2">
-        <v>0.002198412423541168</v>
+        <v>0.007680981655858415</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.64593349569733</v>
+        <v>6.201571333333333</v>
       </c>
       <c r="H3">
-        <v>5.64593349569733</v>
+        <v>18.604714</v>
       </c>
       <c r="I3">
-        <v>0.05923501724226955</v>
+        <v>0.05221490529364391</v>
       </c>
       <c r="J3">
-        <v>0.05923501724226955</v>
+        <v>0.07406232529850043</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.02981613596453</v>
+        <v>1.168375666666667</v>
       </c>
       <c r="N3">
-        <v>1.02981613596453</v>
+        <v>3.505127</v>
       </c>
       <c r="O3">
-        <v>0.06826277232603824</v>
+        <v>0.07232491018701337</v>
       </c>
       <c r="P3">
-        <v>0.06826277232603824</v>
+        <v>0.09665088552303537</v>
       </c>
       <c r="Q3">
-        <v>5.814273416451735</v>
+        <v>7.245765040964222</v>
       </c>
       <c r="R3">
-        <v>5.814273416451735</v>
+        <v>65.21188536867798</v>
       </c>
       <c r="S3">
-        <v>0.004043546495737995</v>
+        <v>0.003776438335786204</v>
       </c>
       <c r="T3">
-        <v>0.004043546495737995</v>
+        <v>0.007158189323995172</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.64593349569733</v>
+        <v>6.201571333333333</v>
       </c>
       <c r="H4">
-        <v>5.64593349569733</v>
+        <v>18.604714</v>
       </c>
       <c r="I4">
-        <v>0.05923501724226955</v>
+        <v>0.05221490529364391</v>
       </c>
       <c r="J4">
-        <v>0.05923501724226955</v>
+        <v>0.07406232529850043</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.549410622398558</v>
+        <v>0.6422343333333334</v>
       </c>
       <c r="N4">
-        <v>0.549410622398558</v>
+        <v>1.926703</v>
       </c>
       <c r="O4">
-        <v>0.03641843521433373</v>
+        <v>0.03975565548182683</v>
       </c>
       <c r="P4">
-        <v>0.03641843521433373</v>
+        <v>0.05312719085211144</v>
       </c>
       <c r="Q4">
-        <v>3.101935835891936</v>
+        <v>3.982862030882444</v>
       </c>
       <c r="R4">
-        <v>3.101935835891936</v>
+        <v>35.845758277942</v>
       </c>
       <c r="S4">
-        <v>0.002157246637857535</v>
+        <v>0.002075837785870323</v>
       </c>
       <c r="T4">
-        <v>0.002157246637857535</v>
+        <v>0.003934723291084594</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.64593349569733</v>
+        <v>6.201571333333333</v>
       </c>
       <c r="H5">
-        <v>5.64593349569733</v>
+        <v>18.604714</v>
       </c>
       <c r="I5">
-        <v>0.05923501724226955</v>
+        <v>0.05221490529364391</v>
       </c>
       <c r="J5">
-        <v>0.05923501724226955</v>
+        <v>0.07406232529850043</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.8322439677197691</v>
+        <v>0.8924576666666667</v>
       </c>
       <c r="N5">
-        <v>0.8322439677197691</v>
+        <v>2.677373</v>
       </c>
       <c r="O5">
-        <v>0.05516643069004122</v>
+        <v>0.05524500589055249</v>
       </c>
       <c r="P5">
-        <v>0.05516643069004122</v>
+        <v>0.07382627543180768</v>
       </c>
       <c r="Q5">
-        <v>4.698794093941092</v>
+        <v>5.534639881813556</v>
       </c>
       <c r="R5">
-        <v>4.698794093941092</v>
+        <v>49.811758936322</v>
       </c>
       <c r="S5">
-        <v>0.00326778447311906</v>
+        <v>0.002884612750521998</v>
       </c>
       <c r="T5">
-        <v>0.00326778447311906</v>
+        <v>0.005467745626607231</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.64593349569733</v>
+        <v>6.201571333333333</v>
       </c>
       <c r="H6">
-        <v>5.64593349569733</v>
+        <v>18.604714</v>
       </c>
       <c r="I6">
-        <v>0.05923501724226955</v>
+        <v>0.05221490529364391</v>
       </c>
       <c r="J6">
-        <v>0.05923501724226955</v>
+        <v>0.07406232529850043</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.1146923945513</v>
+        <v>12.1977655</v>
       </c>
       <c r="N6">
-        <v>12.1146923945513</v>
+        <v>24.395531</v>
       </c>
       <c r="O6">
-        <v>0.8030389696260558</v>
+        <v>0.7550673293176682</v>
       </c>
       <c r="P6">
-        <v>0.8030389696260558</v>
+        <v>0.6726859466018379</v>
       </c>
       <c r="Q6">
-        <v>68.39874758046687</v>
+        <v>75.64531285552232</v>
       </c>
       <c r="R6">
-        <v>68.39874758046687</v>
+        <v>453.8718771331339</v>
       </c>
       <c r="S6">
-        <v>0.04756802721201379</v>
+        <v>0.03942576909064668</v>
       </c>
       <c r="T6">
-        <v>0.04756802721201379</v>
+        <v>0.04982068540095501</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.62253671382392</v>
+        <v>7.461641333333333</v>
       </c>
       <c r="H7">
-        <v>6.62253671382392</v>
+        <v>22.384924</v>
       </c>
       <c r="I7">
-        <v>0.0694811720205131</v>
+        <v>0.06282422221945559</v>
       </c>
       <c r="J7">
-        <v>0.0694811720205131</v>
+        <v>0.0891107233935555</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.559894782872871</v>
+        <v>1.253707</v>
       </c>
       <c r="N7">
-        <v>0.559894782872871</v>
+        <v>3.761121</v>
       </c>
       <c r="O7">
-        <v>0.03711339214353097</v>
+        <v>0.07760709912293902</v>
       </c>
       <c r="P7">
-        <v>0.03711339214353097</v>
+        <v>0.1037097015912075</v>
       </c>
       <c r="Q7">
-        <v>3.70792375545406</v>
+        <v>9.354711971089332</v>
       </c>
       <c r="R7">
-        <v>3.70792375545406</v>
+        <v>84.19240773980398</v>
       </c>
       <c r="S7">
-        <v>0.002578681983789435</v>
+        <v>0.004875605641106838</v>
       </c>
       <c r="T7">
-        <v>0.002578681983789435</v>
+        <v>0.009241646531722271</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.62253671382392</v>
+        <v>7.461641333333333</v>
       </c>
       <c r="H8">
-        <v>6.62253671382392</v>
+        <v>22.384924</v>
       </c>
       <c r="I8">
-        <v>0.0694811720205131</v>
+        <v>0.06282422221945559</v>
       </c>
       <c r="J8">
-        <v>0.0694811720205131</v>
+        <v>0.0891107233935555</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.02981613596453</v>
+        <v>1.168375666666667</v>
       </c>
       <c r="N8">
-        <v>1.02981613596453</v>
+        <v>3.505127</v>
       </c>
       <c r="O8">
-        <v>0.06826277232603824</v>
+        <v>0.07232491018701337</v>
       </c>
       <c r="P8">
-        <v>0.06826277232603824</v>
+        <v>0.09665088552303537</v>
       </c>
       <c r="Q8">
-        <v>6.819995168913385</v>
+        <v>8.718000167260888</v>
       </c>
       <c r="R8">
-        <v>6.819995168913385</v>
+        <v>78.46200150534798</v>
       </c>
       <c r="S8">
-        <v>0.004742977426582584</v>
+        <v>0.004543756229591096</v>
       </c>
       <c r="T8">
-        <v>0.004742977426582584</v>
+        <v>0.008612630325585402</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.62253671382392</v>
+        <v>7.461641333333333</v>
       </c>
       <c r="H9">
-        <v>6.62253671382392</v>
+        <v>22.384924</v>
       </c>
       <c r="I9">
-        <v>0.0694811720205131</v>
+        <v>0.06282422221945559</v>
       </c>
       <c r="J9">
-        <v>0.0694811720205131</v>
+        <v>0.0891107233935555</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.549410622398558</v>
+        <v>0.6422343333333334</v>
       </c>
       <c r="N9">
-        <v>0.549410622398558</v>
+        <v>1.926703</v>
       </c>
       <c r="O9">
-        <v>0.03641843521433373</v>
+        <v>0.03975565548182683</v>
       </c>
       <c r="P9">
-        <v>0.03641843521433373</v>
+        <v>0.05312719085211144</v>
       </c>
       <c r="Q9">
-        <v>3.638492017799301</v>
+        <v>4.792122247285778</v>
       </c>
       <c r="R9">
-        <v>3.638492017799301</v>
+        <v>43.129100225572</v>
       </c>
       <c r="S9">
-        <v>0.002530395561845034</v>
+        <v>0.002497618134470407</v>
       </c>
       <c r="T9">
-        <v>0.002530395561845034</v>
+        <v>0.004734202408699134</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.62253671382392</v>
+        <v>7.461641333333333</v>
       </c>
       <c r="H10">
-        <v>6.62253671382392</v>
+        <v>22.384924</v>
       </c>
       <c r="I10">
-        <v>0.0694811720205131</v>
+        <v>0.06282422221945559</v>
       </c>
       <c r="J10">
-        <v>0.0694811720205131</v>
+        <v>0.0891107233935555</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8322439677197691</v>
+        <v>0.8924576666666667</v>
       </c>
       <c r="N10">
-        <v>0.8322439677197691</v>
+        <v>2.677373</v>
       </c>
       <c r="O10">
-        <v>0.05516643069004122</v>
+        <v>0.05524500589055249</v>
       </c>
       <c r="P10">
-        <v>0.05516643069004122</v>
+        <v>0.07382627543180768</v>
       </c>
       <c r="Q10">
-        <v>5.51156623108266</v>
+        <v>6.659199013850222</v>
       </c>
       <c r="R10">
-        <v>5.51156623108266</v>
+        <v>59.932791124652</v>
       </c>
       <c r="S10">
-        <v>0.003833028260532467</v>
+        <v>0.003470724526583203</v>
       </c>
       <c r="T10">
-        <v>0.003833028260532467</v>
+        <v>0.006578712809180256</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.62253671382392</v>
+        <v>7.461641333333333</v>
       </c>
       <c r="H11">
-        <v>6.62253671382392</v>
+        <v>22.384924</v>
       </c>
       <c r="I11">
-        <v>0.0694811720205131</v>
+        <v>0.06282422221945559</v>
       </c>
       <c r="J11">
-        <v>0.0694811720205131</v>
+        <v>0.0891107233935555</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.1146923945513</v>
+        <v>12.1977655</v>
       </c>
       <c r="N11">
-        <v>12.1146923945513</v>
+        <v>24.395531</v>
       </c>
       <c r="O11">
-        <v>0.8030389696260558</v>
+        <v>0.7550673293176682</v>
       </c>
       <c r="P11">
-        <v>0.8030389696260558</v>
+        <v>0.6726859466018379</v>
       </c>
       <c r="Q11">
-        <v>80.2299951595994</v>
+        <v>91.01535122910732</v>
       </c>
       <c r="R11">
-        <v>80.2299951595994</v>
+        <v>546.0921073746439</v>
       </c>
       <c r="S11">
-        <v>0.05579608878776358</v>
+        <v>0.04743651768770404</v>
       </c>
       <c r="T11">
-        <v>0.05579608878776358</v>
+        <v>0.05994353131836842</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>83.0456490150182</v>
+        <v>105.106922</v>
       </c>
       <c r="H12">
-        <v>83.0456490150182</v>
+        <v>210.213844</v>
       </c>
       <c r="I12">
-        <v>0.8712838107372173</v>
+        <v>0.8849608724869005</v>
       </c>
       <c r="J12">
-        <v>0.8712838107372173</v>
+        <v>0.836826951307944</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.559894782872871</v>
+        <v>1.253707</v>
       </c>
       <c r="N12">
-        <v>0.559894782872871</v>
+        <v>3.761121</v>
       </c>
       <c r="O12">
-        <v>0.03711339214353097</v>
+        <v>0.07760709912293902</v>
       </c>
       <c r="P12">
-        <v>0.03711339214353097</v>
+        <v>0.1037097015912075</v>
       </c>
       <c r="Q12">
-        <v>46.49682562380027</v>
+        <v>131.773283859854</v>
       </c>
       <c r="R12">
-        <v>46.49682562380027</v>
+        <v>790.6397031591239</v>
       </c>
       <c r="S12">
-        <v>0.03233629773620036</v>
+        <v>0.06867924615101348</v>
       </c>
       <c r="T12">
-        <v>0.03233629773620036</v>
+        <v>0.08678707340362678</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>83.0456490150182</v>
+        <v>105.106922</v>
       </c>
       <c r="H13">
-        <v>83.0456490150182</v>
+        <v>210.213844</v>
       </c>
       <c r="I13">
-        <v>0.8712838107372173</v>
+        <v>0.8849608724869005</v>
       </c>
       <c r="J13">
-        <v>0.8712838107372173</v>
+        <v>0.836826951307944</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.02981613596453</v>
+        <v>1.168375666666667</v>
       </c>
       <c r="N13">
-        <v>1.02981613596453</v>
+        <v>3.505127</v>
       </c>
       <c r="O13">
-        <v>0.06826277232603824</v>
+        <v>0.07232491018701337</v>
       </c>
       <c r="P13">
-        <v>0.06826277232603824</v>
+        <v>0.09665088552303537</v>
       </c>
       <c r="Q13">
-        <v>85.52174937731262</v>
+        <v>122.8043700630313</v>
       </c>
       <c r="R13">
-        <v>85.52174937731262</v>
+        <v>736.8262203781879</v>
       </c>
       <c r="S13">
-        <v>0.05947624840371765</v>
+        <v>0.06400471562163607</v>
       </c>
       <c r="T13">
-        <v>0.05947624840371765</v>
+        <v>0.0808800658734548</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>83.0456490150182</v>
+        <v>105.106922</v>
       </c>
       <c r="H14">
-        <v>83.0456490150182</v>
+        <v>210.213844</v>
       </c>
       <c r="I14">
-        <v>0.8712838107372173</v>
+        <v>0.8849608724869005</v>
       </c>
       <c r="J14">
-        <v>0.8712838107372173</v>
+        <v>0.836826951307944</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.549410622398558</v>
+        <v>0.6422343333333334</v>
       </c>
       <c r="N14">
-        <v>0.549410622398558</v>
+        <v>1.926703</v>
       </c>
       <c r="O14">
-        <v>0.03641843521433373</v>
+        <v>0.03975565548182683</v>
       </c>
       <c r="P14">
-        <v>0.03641843521433373</v>
+        <v>0.05312719085211144</v>
       </c>
       <c r="Q14">
-        <v>45.62616171283334</v>
+        <v>67.50327397938867</v>
       </c>
       <c r="R14">
-        <v>45.62616171283334</v>
+        <v>405.019643876332</v>
       </c>
       <c r="S14">
-        <v>0.03173079301463116</v>
+        <v>0.0351821995614861</v>
       </c>
       <c r="T14">
-        <v>0.03173079301463116</v>
+        <v>0.04445826515232771</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>83.0456490150182</v>
+        <v>105.106922</v>
       </c>
       <c r="H15">
-        <v>83.0456490150182</v>
+        <v>210.213844</v>
       </c>
       <c r="I15">
-        <v>0.8712838107372173</v>
+        <v>0.8849608724869005</v>
       </c>
       <c r="J15">
-        <v>0.8712838107372173</v>
+        <v>0.836826951307944</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.8322439677197691</v>
+        <v>0.8924576666666667</v>
       </c>
       <c r="N15">
-        <v>0.8322439677197691</v>
+        <v>2.677373</v>
       </c>
       <c r="O15">
-        <v>0.05516643069004122</v>
+        <v>0.05524500589055249</v>
       </c>
       <c r="P15">
-        <v>0.05516643069004122</v>
+        <v>0.07382627543180768</v>
       </c>
       <c r="Q15">
-        <v>69.11424043812208</v>
+        <v>93.80347835863533</v>
       </c>
       <c r="R15">
-        <v>69.11424043812208</v>
+        <v>562.8208701518121</v>
       </c>
       <c r="S15">
-        <v>0.04806561795638969</v>
+        <v>0.04888966861344728</v>
       </c>
       <c r="T15">
-        <v>0.04806561795638969</v>
+        <v>0.06177981699602019</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>83.0456490150182</v>
+        <v>105.106922</v>
       </c>
       <c r="H16">
-        <v>83.0456490150182</v>
+        <v>210.213844</v>
       </c>
       <c r="I16">
-        <v>0.8712838107372173</v>
+        <v>0.8849608724869005</v>
       </c>
       <c r="J16">
-        <v>0.8712838107372173</v>
+        <v>0.836826951307944</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.1146923945513</v>
+        <v>12.1977655</v>
       </c>
       <c r="N16">
-        <v>12.1146923945513</v>
+        <v>24.395531</v>
       </c>
       <c r="O16">
-        <v>0.8030389696260558</v>
+        <v>0.7550673293176682</v>
       </c>
       <c r="P16">
-        <v>0.8030389696260558</v>
+        <v>0.6726859466018379</v>
       </c>
       <c r="Q16">
-        <v>1006.072492522818</v>
+        <v>1282.069586982791</v>
       </c>
       <c r="R16">
-        <v>1006.072492522818</v>
+        <v>5128.278347931164</v>
       </c>
       <c r="S16">
-        <v>0.6996748536262783</v>
+        <v>0.6682050425393175</v>
       </c>
       <c r="T16">
-        <v>0.6996748536262783</v>
+        <v>0.5629217298825144</v>
       </c>
     </row>
   </sheetData>
